--- a/output/underutilisation tables.xlsx
+++ b/output/underutilisation tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\MEGAsync\Steve\RMIT JIBE\20mnMelbourne\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB259AA-C418-40C3-B80E-B3946B9A3D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFA7F82-BA4C-4F49-BB32-415141F786F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="-15780" windowWidth="22620" windowHeight="13500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LGA new walk" sheetId="1" r:id="rId1"/>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1831,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>0.36217323662727402</v>
+        <v>999</v>
       </c>
       <c r="E2" s="4">
         <v>1.4861407267720601</v>
@@ -3462,6 +3462,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3469,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3539,7 +3542,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>3.2041599671187</v>
+        <v>999</v>
       </c>
       <c r="E2" s="4">
         <v>8.0133672118977604</v>
@@ -5170,6 +5173,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5177,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:Q31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5247,7 +5253,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>0.35206189658214199</v>
+        <v>999</v>
       </c>
       <c r="E2" s="4">
         <v>0.46592578430916298</v>
@@ -6888,6 +6894,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6895,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6965,7 +6974,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>2.8794276192260599</v>
+        <v>999</v>
       </c>
       <c r="E2" s="4">
         <v>3.9903244795291801</v>
@@ -8606,6 +8615,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8613,7 +8625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -8668,6 +8682,9 @@
       <c r="A2" t="s">
         <v>97</v>
       </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
       <c r="C2">
         <v>1.4861407267720601</v>
       </c>
@@ -19910,6 +19927,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -19917,7 +19937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -19972,6 +19994,9 @@
       <c r="A2" t="s">
         <v>97</v>
       </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
       <c r="C2">
         <v>8.0133672118977604</v>
       </c>
@@ -31214,6 +31239,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -31221,7 +31249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O329"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -31276,6 +31306,9 @@
       <c r="A2" t="s">
         <v>386</v>
       </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
       <c r="C2">
         <v>0.46592578430916298</v>
       </c>
@@ -44441,6 +44474,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -44448,7 +44484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O329"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -44503,6 +44541,9 @@
       <c r="A2" t="s">
         <v>386</v>
       </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
       <c r="C2">
         <v>3.9903244795291801</v>
       </c>
@@ -57668,5 +57709,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>